--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Calr-Itgav.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Calr-Itgav.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>69.708697960465</v>
+        <v>81.03634266666667</v>
       </c>
       <c r="H2">
-        <v>69.708697960465</v>
+        <v>243.109028</v>
       </c>
       <c r="I2">
-        <v>0.1509359978963935</v>
+        <v>0.1632931649012984</v>
       </c>
       <c r="J2">
-        <v>0.1509359978963935</v>
+        <v>0.1632931649012984</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.94329894969631</v>
+        <v>15.35884066666667</v>
       </c>
       <c r="N2">
-        <v>9.94329894969631</v>
+        <v>46.076522</v>
       </c>
       <c r="O2">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="P2">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="Q2">
-        <v>693.1344232149889</v>
+        <v>1244.624275226735</v>
       </c>
       <c r="R2">
-        <v>693.1344232149889</v>
+        <v>11201.61847704062</v>
       </c>
       <c r="S2">
-        <v>0.01050200052746191</v>
+        <v>0.01652596746466431</v>
       </c>
       <c r="T2">
-        <v>0.01050200052746191</v>
+        <v>0.01652596746466431</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>69.708697960465</v>
+        <v>81.03634266666667</v>
       </c>
       <c r="H3">
-        <v>69.708697960465</v>
+        <v>243.109028</v>
       </c>
       <c r="I3">
-        <v>0.1509359978963935</v>
+        <v>0.1632931649012984</v>
       </c>
       <c r="J3">
-        <v>0.1509359978963935</v>
+        <v>0.1632931649012984</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>50.572725955246</v>
+        <v>50.59256466666667</v>
       </c>
       <c r="N3">
-        <v>50.572725955246</v>
+        <v>151.777694</v>
       </c>
       <c r="O3">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="P3">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="Q3">
-        <v>3525.358878651612</v>
+        <v>4099.836406713493</v>
       </c>
       <c r="R3">
-        <v>3525.358878651612</v>
+        <v>36898.52766042144</v>
       </c>
       <c r="S3">
-        <v>0.05341434440864332</v>
+        <v>0.05443712164094712</v>
       </c>
       <c r="T3">
-        <v>0.05341434440864332</v>
+        <v>0.05443712164094712</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>69.708697960465</v>
+        <v>81.03634266666667</v>
       </c>
       <c r="H4">
-        <v>69.708697960465</v>
+        <v>243.109028</v>
       </c>
       <c r="I4">
-        <v>0.1509359978963935</v>
+        <v>0.1632931649012984</v>
       </c>
       <c r="J4">
-        <v>0.1509359978963935</v>
+        <v>0.1632931649012984</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>56.9893093675663</v>
+        <v>60.37715666666667</v>
       </c>
       <c r="N4">
-        <v>56.9893093675663</v>
+        <v>181.13147</v>
       </c>
       <c r="O4">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="P4">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="Q4">
-        <v>3972.650553679178</v>
+        <v>4892.743956879019</v>
       </c>
       <c r="R4">
-        <v>3972.650553679178</v>
+        <v>44034.69561191116</v>
       </c>
       <c r="S4">
-        <v>0.06019146764727926</v>
+        <v>0.06496525019937097</v>
       </c>
       <c r="T4">
-        <v>0.06019146764727926</v>
+        <v>0.06496525019937097</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>69.708697960465</v>
+        <v>81.03634266666667</v>
       </c>
       <c r="H5">
-        <v>69.708697960465</v>
+        <v>243.109028</v>
       </c>
       <c r="I5">
-        <v>0.1509359978963935</v>
+        <v>0.1632931649012984</v>
       </c>
       <c r="J5">
-        <v>0.1509359978963935</v>
+        <v>0.1632931649012984</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.4009382448175</v>
+        <v>25.43221733333333</v>
       </c>
       <c r="N5">
-        <v>25.4009382448175</v>
+        <v>76.29665199999999</v>
       </c>
       <c r="O5">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966257</v>
       </c>
       <c r="P5">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966258</v>
       </c>
       <c r="Q5">
-        <v>1770.666332020407</v>
+        <v>2060.933878597139</v>
       </c>
       <c r="R5">
-        <v>1770.666332020407</v>
+        <v>18548.40490737426</v>
       </c>
       <c r="S5">
-        <v>0.02682818531300905</v>
+        <v>0.02736482559631596</v>
       </c>
       <c r="T5">
-        <v>0.02682818531300905</v>
+        <v>0.02736482559631596</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>176.889398206918</v>
+        <v>178.365814</v>
       </c>
       <c r="H6">
-        <v>176.889398206918</v>
+        <v>535.097442</v>
       </c>
       <c r="I6">
-        <v>0.3830078400086587</v>
+        <v>0.3594179761796791</v>
       </c>
       <c r="J6">
-        <v>0.3830078400086587</v>
+        <v>0.3594179761796791</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.94329894969631</v>
+        <v>15.35884066666667</v>
       </c>
       <c r="N6">
-        <v>9.94329894969631</v>
+        <v>46.076522</v>
       </c>
       <c r="O6">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="P6">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="Q6">
-        <v>1758.86416740326</v>
+        <v>2739.492117606303</v>
       </c>
       <c r="R6">
-        <v>1758.86416740326</v>
+        <v>24655.42905845672</v>
       </c>
       <c r="S6">
-        <v>0.02664936525317192</v>
+        <v>0.03637463811881597</v>
       </c>
       <c r="T6">
-        <v>0.02664936525317192</v>
+        <v>0.03637463811881597</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>176.889398206918</v>
+        <v>178.365814</v>
       </c>
       <c r="H7">
-        <v>176.889398206918</v>
+        <v>535.097442</v>
       </c>
       <c r="I7">
-        <v>0.3830078400086587</v>
+        <v>0.3594179761796791</v>
       </c>
       <c r="J7">
-        <v>0.3830078400086587</v>
+        <v>0.3594179761796791</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>50.572725955246</v>
+        <v>50.59256466666667</v>
       </c>
       <c r="N7">
-        <v>50.572725955246</v>
+        <v>151.777694</v>
       </c>
       <c r="O7">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="P7">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="Q7">
-        <v>8945.779059906847</v>
+        <v>9023.983979117638</v>
       </c>
       <c r="R7">
-        <v>8945.779059906847</v>
+        <v>81215.85581205874</v>
       </c>
       <c r="S7">
-        <v>0.1355416399173115</v>
+        <v>0.1198193451701582</v>
       </c>
       <c r="T7">
-        <v>0.1355416399173115</v>
+        <v>0.1198193451701582</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>176.889398206918</v>
+        <v>178.365814</v>
       </c>
       <c r="H8">
-        <v>176.889398206918</v>
+        <v>535.097442</v>
       </c>
       <c r="I8">
-        <v>0.3830078400086587</v>
+        <v>0.3594179761796791</v>
       </c>
       <c r="J8">
-        <v>0.3830078400086587</v>
+        <v>0.3594179761796791</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>56.9893093675663</v>
+        <v>60.37715666666667</v>
       </c>
       <c r="N8">
-        <v>56.9893093675663</v>
+        <v>181.13147</v>
       </c>
       <c r="O8">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="P8">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="Q8">
-        <v>10080.80463825668</v>
+        <v>10769.22069585553</v>
       </c>
       <c r="R8">
-        <v>10080.80463825668</v>
+        <v>96922.98626269975</v>
       </c>
       <c r="S8">
-        <v>0.1527389379063849</v>
+        <v>0.1429923828274012</v>
       </c>
       <c r="T8">
-        <v>0.1527389379063849</v>
+        <v>0.1429923828274012</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>176.889398206918</v>
+        <v>178.365814</v>
       </c>
       <c r="H9">
-        <v>176.889398206918</v>
+        <v>535.097442</v>
       </c>
       <c r="I9">
-        <v>0.3830078400086587</v>
+        <v>0.3594179761796791</v>
       </c>
       <c r="J9">
-        <v>0.3830078400086587</v>
+        <v>0.3594179761796791</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>25.4009382448175</v>
+        <v>25.43221733333333</v>
       </c>
       <c r="N9">
-        <v>25.4009382448175</v>
+        <v>76.29665199999999</v>
       </c>
       <c r="O9">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966257</v>
       </c>
       <c r="P9">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966258</v>
       </c>
       <c r="Q9">
-        <v>4493.156680016856</v>
+        <v>4536.238146484909</v>
       </c>
       <c r="R9">
-        <v>4493.156680016856</v>
+        <v>40826.14331836418</v>
       </c>
       <c r="S9">
-        <v>0.06807789693179042</v>
+        <v>0.06023161006330375</v>
       </c>
       <c r="T9">
-        <v>0.06807789693179042</v>
+        <v>0.06023161006330376</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>125.306455331482</v>
+        <v>146.2303303333333</v>
       </c>
       <c r="H10">
-        <v>125.306455331482</v>
+        <v>438.6909910000001</v>
       </c>
       <c r="I10">
-        <v>0.2713184355995814</v>
+        <v>0.2946630198121519</v>
       </c>
       <c r="J10">
-        <v>0.2713184355995814</v>
+        <v>0.2946630198121519</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.94329894969631</v>
+        <v>15.35884066666667</v>
       </c>
       <c r="N10">
-        <v>9.94329894969631</v>
+        <v>46.076522</v>
       </c>
       <c r="O10">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="P10">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="Q10">
-        <v>1245.959545687693</v>
+        <v>2245.9283442237</v>
       </c>
       <c r="R10">
-        <v>1245.959545687693</v>
+        <v>20213.3550980133</v>
       </c>
       <c r="S10">
-        <v>0.01887810988424934</v>
+        <v>0.02982115927141687</v>
       </c>
       <c r="T10">
-        <v>0.01887810988424934</v>
+        <v>0.02982115927141688</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>125.306455331482</v>
+        <v>146.2303303333333</v>
       </c>
       <c r="H11">
-        <v>125.306455331482</v>
+        <v>438.6909910000001</v>
       </c>
       <c r="I11">
-        <v>0.2713184355995814</v>
+        <v>0.2946630198121519</v>
       </c>
       <c r="J11">
-        <v>0.2713184355995814</v>
+        <v>0.2946630198121519</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>50.572725955246</v>
+        <v>50.59256466666667</v>
       </c>
       <c r="N11">
-        <v>50.572725955246</v>
+        <v>151.777694</v>
       </c>
       <c r="O11">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="P11">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="Q11">
-        <v>6337.089025902314</v>
+        <v>7398.167443617195</v>
       </c>
       <c r="R11">
-        <v>6337.089025902314</v>
+        <v>66583.50699255476</v>
       </c>
       <c r="S11">
-        <v>0.09601616953881506</v>
+        <v>0.09823195393572401</v>
       </c>
       <c r="T11">
-        <v>0.09601616953881506</v>
+        <v>0.09823195393572401</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>125.306455331482</v>
+        <v>146.2303303333333</v>
       </c>
       <c r="H12">
-        <v>125.306455331482</v>
+        <v>438.6909910000001</v>
       </c>
       <c r="I12">
-        <v>0.2713184355995814</v>
+        <v>0.2946630198121519</v>
       </c>
       <c r="J12">
-        <v>0.2713184355995814</v>
+        <v>0.2946630198121519</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>56.9893093675663</v>
+        <v>60.37715666666667</v>
       </c>
       <c r="N12">
-        <v>56.9893093675663</v>
+        <v>181.13147</v>
       </c>
       <c r="O12">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="P12">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="Q12">
-        <v>7141.128348638955</v>
+        <v>8828.971563954086</v>
       </c>
       <c r="R12">
-        <v>7141.128348638955</v>
+        <v>79460.74407558679</v>
       </c>
       <c r="S12">
-        <v>0.1081985415415128</v>
+        <v>0.117229994397925</v>
       </c>
       <c r="T12">
-        <v>0.1081985415415128</v>
+        <v>0.117229994397925</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>125.306455331482</v>
+        <v>146.2303303333333</v>
       </c>
       <c r="H13">
-        <v>125.306455331482</v>
+        <v>438.6909910000001</v>
       </c>
       <c r="I13">
-        <v>0.2713184355995814</v>
+        <v>0.2946630198121519</v>
       </c>
       <c r="J13">
-        <v>0.2713184355995814</v>
+        <v>0.2946630198121519</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.4009382448175</v>
+        <v>25.43221733333333</v>
       </c>
       <c r="N13">
-        <v>25.4009382448175</v>
+        <v>76.29665199999999</v>
       </c>
       <c r="O13">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966257</v>
       </c>
       <c r="P13">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966258</v>
       </c>
       <c r="Q13">
-        <v>3182.901533551957</v>
+        <v>3718.961541762459</v>
       </c>
       <c r="R13">
-        <v>3182.901533551957</v>
+        <v>33470.65387586213</v>
       </c>
       <c r="S13">
-        <v>0.04822561463500421</v>
+        <v>0.04937991220708601</v>
       </c>
       <c r="T13">
-        <v>0.04822561463500421</v>
+        <v>0.04937991220708601</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>89.93820922091309</v>
+        <v>90.630432</v>
       </c>
       <c r="H14">
-        <v>89.93820922091309</v>
+        <v>271.891296</v>
       </c>
       <c r="I14">
-        <v>0.1947377264953664</v>
+        <v>0.1826258391068707</v>
       </c>
       <c r="J14">
-        <v>0.1947377264953664</v>
+        <v>0.1826258391068707</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.94329894969631</v>
+        <v>15.35884066666667</v>
       </c>
       <c r="N14">
-        <v>9.94329894969631</v>
+        <v>46.076522</v>
       </c>
       <c r="O14">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="P14">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="Q14">
-        <v>894.2825012838721</v>
+        <v>1391.978364639168</v>
       </c>
       <c r="R14">
-        <v>894.2825012838721</v>
+        <v>12527.80528175251</v>
       </c>
       <c r="S14">
-        <v>0.01354968817826286</v>
+        <v>0.0184825168714895</v>
       </c>
       <c r="T14">
-        <v>0.01354968817826286</v>
+        <v>0.01848251687148951</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>89.93820922091309</v>
+        <v>90.630432</v>
       </c>
       <c r="H15">
-        <v>89.93820922091309</v>
+        <v>271.891296</v>
       </c>
       <c r="I15">
-        <v>0.1947377264953664</v>
+        <v>0.1826258391068707</v>
       </c>
       <c r="J15">
-        <v>0.1947377264953664</v>
+        <v>0.1826258391068707</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>50.572725955246</v>
+        <v>50.59256466666667</v>
       </c>
       <c r="N15">
-        <v>50.572725955246</v>
+        <v>151.777694</v>
       </c>
       <c r="O15">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="P15">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="Q15">
-        <v>4548.420407834817</v>
+        <v>4585.225991727936</v>
       </c>
       <c r="R15">
-        <v>4548.420407834817</v>
+        <v>41267.03392555143</v>
       </c>
       <c r="S15">
-        <v>0.06891522325588459</v>
+        <v>0.06088206462438227</v>
       </c>
       <c r="T15">
-        <v>0.06891522325588459</v>
+        <v>0.06088206462438227</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>89.93820922091309</v>
+        <v>90.630432</v>
       </c>
       <c r="H16">
-        <v>89.93820922091309</v>
+        <v>271.891296</v>
       </c>
       <c r="I16">
-        <v>0.1947377264953664</v>
+        <v>0.1826258391068707</v>
       </c>
       <c r="J16">
-        <v>0.1947377264953664</v>
+        <v>0.1826258391068707</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>56.9893093675663</v>
+        <v>60.37715666666667</v>
       </c>
       <c r="N16">
-        <v>56.9893093675663</v>
+        <v>181.13147</v>
       </c>
       <c r="O16">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="P16">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="Q16">
-        <v>5125.51642925552</v>
+        <v>5472.00779163168</v>
       </c>
       <c r="R16">
-        <v>5125.51642925552</v>
+        <v>49248.07012468512</v>
       </c>
       <c r="S16">
-        <v>0.07765907223866202</v>
+        <v>0.07265664388107886</v>
       </c>
       <c r="T16">
-        <v>0.07765907223866202</v>
+        <v>0.07265664388107886</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>89.93820922091309</v>
+        <v>90.630432</v>
       </c>
       <c r="H17">
-        <v>89.93820922091309</v>
+        <v>271.891296</v>
       </c>
       <c r="I17">
-        <v>0.1947377264953664</v>
+        <v>0.1826258391068707</v>
       </c>
       <c r="J17">
-        <v>0.1947377264953664</v>
+        <v>0.1826258391068707</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.4009382448175</v>
+        <v>25.43221733333333</v>
       </c>
       <c r="N17">
-        <v>25.4009382448175</v>
+        <v>76.29665199999999</v>
       </c>
       <c r="O17">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966257</v>
       </c>
       <c r="P17">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966258</v>
       </c>
       <c r="Q17">
-        <v>2284.514898269889</v>
+        <v>2304.932843637888</v>
       </c>
       <c r="R17">
-        <v>2284.514898269889</v>
+        <v>20744.39559274099</v>
       </c>
       <c r="S17">
-        <v>0.03461374282255694</v>
+        <v>0.03060461372992005</v>
       </c>
       <c r="T17">
-        <v>0.03461374282255694</v>
+        <v>0.03060461372992005</v>
       </c>
     </row>
   </sheetData>
